--- a/lib/server/api.xlsx
+++ b/lib/server/api.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -110,11 +110,206 @@
     <t>根据多个ID删除数据，其中参数为数组。</t>
   </si>
   <si>
+    <t>资源都以复数形式命名，比如users、departments、roles</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dou'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu'shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ming'ming</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi'ru</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交方式</t>
+    <rPh sb="0" eb="1">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求路径</t>
+    <rPh sb="0" eb="1">
+      <t>qing'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lu'jing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <rPh sb="0" eb="1">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jia</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取或查询</t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cha'xun</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/resources/:id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/resources/:id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <rPh sb="0" eb="1">
+      <t>shan'chu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/resources/:id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/resources</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未分页的条件查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>page:页码
+rows:每页显示数
+其他查询条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要修改的参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改的id可以跟在路径后面也可以放在请求参数中。不过建议跟在路径后面</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gen'zai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lu'jing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hou'mian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>qing'qiu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bu'guo</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jian'yi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>gen'zai</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>lu'jing</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>hou'mian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>请求路径遵循REST架构规范：
 获取/查询数据：GET /资源/id，例：/users/1
 增加数据：POST /资源?参数
 修改数据：PUT /资源/id
-删除数据：DELETE /资源/id</t>
+删除数据：DELETE /资源/id
+特殊访问路径：
+/login：登录的访问路径，传递登录名、密码进行验证。并自动将登录信息加入到session中。
+/getSession：获取session中的登录信息。
+/removeSession：删除session中的登录信息。</t>
     <rPh sb="0" eb="1">
       <t>qing'qiu</t>
     </rPh>
@@ -175,196 +370,95 @@
     <rPh sb="92" eb="93">
       <t>zi'yuan</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源都以复数形式命名，比如users、departments、roles</t>
-    <rPh sb="0" eb="1">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dou'yi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fu'shu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xing'shi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ming'ming</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bi'ru</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交方式</t>
-    <rPh sb="0" eb="1">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'shi</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求路径</t>
-    <rPh sb="0" eb="1">
-      <t>qing'qiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="99" eb="100">
+      <t>te'shu</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>fang'wen</t>
+    </rPh>
+    <rPh sb="103" eb="104">
       <t>lu'jing</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <rPh sb="0" eb="1">
-      <t>gong'neng</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加</t>
-    <rPh sb="0" eb="1">
-      <t>zeng'jia</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取或查询</t>
-    <rPh sb="0" eb="1">
+    <rPh sb="114" eb="115">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>de</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>fang'wen</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>lu'jing</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>chuan'di</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>denl'gu'ming</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>yan'zheng</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>jia'ru</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="168" eb="169">
       <t>huo'qu</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>huo</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cha'xun</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/resources/:id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <rPh sb="0" eb="1">
-      <t>xiu'gai</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/resources/:id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <rPh sb="0" eb="1">
+    <rPh sb="177" eb="178">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>de</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="200" eb="201">
       <t>shan'chu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/resources/:id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/resources</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未分页的条件查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询条件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>page:页码
-rows:每页显示数
-其他查询条件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要修改的参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改的id可以跟在路径后面也可以放在请求参数中。不过建议跟在路径后面</t>
-    <rPh sb="0" eb="1">
-      <t>xiu'gai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="209" eb="210">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="210" eb="211">
       <t>de</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gen'zai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>lu'jing</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>hou'mian</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ye</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>fang</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>qing'qiu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>can'shu</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>bu'guo</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>jian'yi</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>gen'zai</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>lu'jing</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>hou'mian</t>
+    <rPh sb="211" eb="212">
+      <t>denl'gu</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>xin'xi</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -604,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -614,17 +708,111 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -632,36 +820,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -671,81 +829,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1035,386 +1147,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="6" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="179" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
+      <c r="B9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="19"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="27" t="s">
+      <c r="D18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="12" t="s">
+      <c r="B22" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="35" t="s">
+      <c r="F22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="24" t="s">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="25"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="C27" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="35" t="s">
+      <c r="D27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="24" t="s">
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="49"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F21:G25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F26:G28"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:G11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D9:D12"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C8:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C9:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="E16:G17"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:G12"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F22:G26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F27:G29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lib/server/api.xlsx
+++ b/lib/server/api.xlsx
@@ -66,13 +66,6 @@
     <t>内容：带分页的条件查询，如果没有条件则分页查询所有。</t>
   </si>
   <si>
-    <t>submitType:"findJoin"
-ref:"集合名称"</t>
-  </si>
-  <si>
-    <t>如果想要进行联合查询，则在请求参数中加上submitType:findJoin和ref。ref指向关联的集合名称。</t>
-  </si>
-  <si>
     <t>findType:"exact"</t>
   </si>
   <si>
@@ -459,6 +452,60 @@
     </rPh>
     <rPh sb="213" eb="214">
       <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitType:"findJoin"
+ref:"集合名称或集合数组"</t>
+    <rPh sb="31" eb="32">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ji'he</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>shu'zu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果想要进行联合查询，则在请求参数中加上submitType:findJoin和ref。ref指向关联的集合名称。如果关联多个集合，则将多个集合组装成数组。</t>
+    <rPh sb="57" eb="58">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>guan'lian</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ji'he</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>duo'ge</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ji'he</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>zu'zhuang</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>shu'zu</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -698,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -709,6 +756,120 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -727,9 +888,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -748,115 +906,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1134,7 +1190,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1147,73 +1203,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="179" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="A4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -1221,287 +1277,298 @@
       <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>42</v>
+      <c r="A9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="28"/>
+      <c r="F9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="39"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="40"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="12" t="s">
-        <v>43</v>
+      <c r="A13" s="28"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="29" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+    <row r="15" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="28"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="28"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="33" t="s">
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="26" t="s">
+      <c r="F18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="26"/>
       <c r="E19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="26"/>
       <c r="E21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="D22" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="B27" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="9" t="s">
+      <c r="C27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:G12"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F22:G26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F27:G29"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="F7:G7"/>
@@ -1518,22 +1585,11 @@
     <mergeCell ref="F20:G21"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="E16:G17"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:G12"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="B9:B17"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F22:G26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
